--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_20_34.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_20_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2953393.992988397</v>
+        <v>2950850.876019799</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283188</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -659,13 +659,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>72.93385014149905</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>239.8079481415051</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>239.8079481415051</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
@@ -674,10 +674,10 @@
         <v>12.9169039459368</v>
       </c>
       <c r="H2" t="n">
-        <v>239.8079481415051</v>
+        <v>185.2449961814013</v>
       </c>
       <c r="I2" t="n">
-        <v>118.4960408938903</v>
+        <v>118.4960408938904</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,16 +707,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>239.8079481415045</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -735,28 +735,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>99.90681807664345</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>41.33882601930308</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -786,25 +786,25 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>147.9721212459916</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>195.0194028815133</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.8573996139459</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>239.8079481415045</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>121.9898132645954</v>
       </c>
     </row>
     <row r="4">
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -862,25 +862,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>129.1731816677914</v>
       </c>
       <c r="S4" t="n">
-        <v>1.948228754746898</v>
+        <v>205.3658819001187</v>
       </c>
       <c r="T4" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>239.8079481415051</v>
+        <v>239.8079481415045</v>
       </c>
       <c r="V4" t="n">
-        <v>239.8079481415051</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>189.0528523395082</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,13 +893,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>290.2905114143476</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>290.2905114143476</v>
+        <v>290.2905114143458</v>
       </c>
       <c r="D5" t="n">
-        <v>236.0696336377452</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -908,13 +908,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>12.74220307430064</v>
+        <v>12.74220307430065</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>111.7608855401376</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,13 +944,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>150.6718910157314</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>211.8871100493788</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>52.0402584468416</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -959,10 +959,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>290.2905114143476</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>290.2905114143458</v>
       </c>
     </row>
     <row r="6">
@@ -978,7 +978,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>143.0614659284101</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -1023,16 +1023,16 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>146.2358974242411</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>194.6426402623424</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8512500608582</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -1041,7 +1041,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>14.81496110769063</v>
       </c>
     </row>
     <row r="7">
@@ -1057,16 +1057,16 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.8424117578468</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1099,22 +1099,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>80.63046553971012</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>223.0380733165757</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2563802146393</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>234.7496669491964</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1139,16 +1139,16 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>11.54770277295398</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1184,13 +1184,13 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>197.6836481114869</v>
+        <v>220.892030512648</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1227,10 +1227,10 @@
         <v>135.3343964518635</v>
       </c>
       <c r="H9" t="n">
-        <v>92.8315678926962</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923704996</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1260,7 +1260,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>134.3646350838587</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T9" t="n">
         <v>192.0665623188214</v>
@@ -1297,10 +1297,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,28 +1336,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>85.36610313819554</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>108.1854048069372</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1367,16 +1367,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1385,7 +1385,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,16 +1418,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695527</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1436,7 +1436,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="12">
@@ -1464,7 +1464,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1497,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364135</v>
       </c>
       <c r="T12" t="n">
         <v>188.3046392154443</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>122.6028762599937</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>39.52129633183035</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856556</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012171</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187875</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1774,7 +1774,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>58.24570521548602</v>
+        <v>26.05480806223633</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1783,7 +1783,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187861</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2002,22 +2002,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>104.8913819999787</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2129,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2239,25 +2239,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>20.43112068613203</v>
       </c>
       <c r="G22" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2330,7 +2330,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2476,10 +2476,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>42.71572132711237</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -2494,7 +2494,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,10 +2524,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>206.5509998577711</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2570,7 +2570,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428168</v>
+        <v>73.93222849083733</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2959,13 +2959,13 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3004,7 +3004,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3080,7 +3080,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3193,19 +3193,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3238,7 +3238,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3424,25 +3424,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>121.8000472740347</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>158.5850925444082</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3484,7 +3484,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3597,7 +3597,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H39" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3664,22 +3664,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3727,7 +3727,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>90.85912858529821</v>
       </c>
     </row>
     <row r="41">
@@ -3752,10 +3752,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3834,7 +3834,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H42" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3901,19 +3901,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>6.434538210426389</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3989,7 +3989,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H44" t="n">
         <v>283.1540821444137</v>
@@ -4031,7 +4031,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881295</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4135,25 +4135,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>42.71572132711237</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>959.2317925660205</v>
+        <v>345.9866426825728</v>
       </c>
       <c r="C2" t="n">
-        <v>885.5612368675366</v>
+        <v>345.9866426825728</v>
       </c>
       <c r="D2" t="n">
-        <v>643.3309862195516</v>
+        <v>345.9866426825728</v>
       </c>
       <c r="E2" t="n">
-        <v>401.1007355715666</v>
+        <v>345.9866426825728</v>
       </c>
       <c r="F2" t="n">
-        <v>394.1552348223631</v>
+        <v>339.0411419333693</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1078570991946</v>
+        <v>325.9937642102008</v>
       </c>
       <c r="H2" t="n">
         <v>138.8776064512096</v>
       </c>
       <c r="I2" t="n">
-        <v>19.18463585132041</v>
+        <v>19.18463585132036</v>
       </c>
       <c r="J2" t="n">
-        <v>40.41888584470428</v>
+        <v>40.41888584470371</v>
       </c>
       <c r="K2" t="n">
-        <v>122.9820404192966</v>
+        <v>122.982040419296</v>
       </c>
       <c r="L2" t="n">
-        <v>262.3106962605498</v>
+        <v>262.3106962605489</v>
       </c>
       <c r="M2" t="n">
-        <v>449.0101090859574</v>
+        <v>449.0101090859559</v>
       </c>
       <c r="N2" t="n">
-        <v>643.3443219779397</v>
+        <v>643.344321977938</v>
       </c>
       <c r="O2" t="n">
-        <v>813.5133472948991</v>
+        <v>813.5133472948971</v>
       </c>
       <c r="P2" t="n">
-        <v>924.2476725444255</v>
+        <v>924.2476725444232</v>
       </c>
       <c r="Q2" t="n">
-        <v>959.2317925660205</v>
+        <v>959.231792566018</v>
       </c>
       <c r="R2" t="n">
-        <v>959.2317925660205</v>
+        <v>959.231792566018</v>
       </c>
       <c r="S2" t="n">
-        <v>959.2317925660205</v>
+        <v>803.0167550628461</v>
       </c>
       <c r="T2" t="n">
-        <v>959.2317925660205</v>
+        <v>588.2168933305571</v>
       </c>
       <c r="U2" t="n">
-        <v>959.2317925660205</v>
+        <v>588.2168933305571</v>
       </c>
       <c r="V2" t="n">
-        <v>959.2317925660205</v>
+        <v>345.9866426825728</v>
       </c>
       <c r="W2" t="n">
-        <v>959.2317925660205</v>
+        <v>345.9866426825728</v>
       </c>
       <c r="X2" t="n">
-        <v>959.2317925660205</v>
+        <v>345.9866426825728</v>
       </c>
       <c r="Y2" t="n">
-        <v>959.2317925660205</v>
+        <v>345.9866426825728</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>791.0164555459526</v>
+        <v>19.18463585132036</v>
       </c>
       <c r="C3" t="n">
-        <v>616.5634262648256</v>
+        <v>19.18463585132036</v>
       </c>
       <c r="D3" t="n">
-        <v>467.6290166035743</v>
+        <v>19.18463585132036</v>
       </c>
       <c r="E3" t="n">
-        <v>308.3915615981188</v>
+        <v>19.18463585132036</v>
       </c>
       <c r="F3" t="n">
-        <v>161.8570036250038</v>
+        <v>19.18463585132036</v>
       </c>
       <c r="G3" t="n">
-        <v>161.8570036250038</v>
+        <v>19.18463585132036</v>
       </c>
       <c r="H3" t="n">
-        <v>60.94102576980838</v>
+        <v>19.18463585132036</v>
       </c>
       <c r="I3" t="n">
-        <v>19.18463585132041</v>
+        <v>19.18463585132036</v>
       </c>
       <c r="J3" t="n">
-        <v>85.30141548166382</v>
+        <v>19.18463585132036</v>
       </c>
       <c r="K3" t="n">
-        <v>152.9092351450208</v>
+        <v>86.7924555146772</v>
       </c>
       <c r="L3" t="n">
-        <v>290.1388331607147</v>
+        <v>224.0220535303709</v>
       </c>
       <c r="M3" t="n">
-        <v>469.6361695153195</v>
+        <v>403.5193898849755</v>
       </c>
       <c r="N3" t="n">
-        <v>668.2929111679841</v>
+        <v>602.1761315376398</v>
       </c>
       <c r="O3" t="n">
-        <v>827.8052238367447</v>
+        <v>827.8052238367426</v>
       </c>
       <c r="P3" t="n">
-        <v>936.4948513640436</v>
+        <v>936.4948513640412</v>
       </c>
       <c r="Q3" t="n">
-        <v>959.2317925660205</v>
+        <v>959.231792566018</v>
       </c>
       <c r="R3" t="n">
-        <v>959.2317925660205</v>
+        <v>959.231792566018</v>
       </c>
       <c r="S3" t="n">
-        <v>959.2317925660205</v>
+        <v>809.7650034286528</v>
       </c>
       <c r="T3" t="n">
-        <v>959.2317925660205</v>
+        <v>612.7757075887404</v>
       </c>
       <c r="U3" t="n">
-        <v>959.2317925660205</v>
+        <v>384.6369200999061</v>
       </c>
       <c r="V3" t="n">
-        <v>959.2317925660205</v>
+        <v>384.6369200999061</v>
       </c>
       <c r="W3" t="n">
-        <v>959.2317925660205</v>
+        <v>142.4066694519218</v>
       </c>
       <c r="X3" t="n">
-        <v>959.2317925660205</v>
+        <v>142.4066694519218</v>
       </c>
       <c r="Y3" t="n">
-        <v>959.2317925660205</v>
+        <v>19.18463585132036</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>19.18463585132041</v>
+        <v>188.1208187792273</v>
       </c>
       <c r="C4" t="n">
-        <v>19.18463585132041</v>
+        <v>19.18463585132036</v>
       </c>
       <c r="D4" t="n">
-        <v>19.18463585132041</v>
+        <v>19.18463585132036</v>
       </c>
       <c r="E4" t="n">
-        <v>19.18463585132041</v>
+        <v>19.18463585132036</v>
       </c>
       <c r="F4" t="n">
-        <v>19.18463585132041</v>
+        <v>19.18463585132036</v>
       </c>
       <c r="G4" t="n">
-        <v>19.18463585132041</v>
+        <v>19.18463585132036</v>
       </c>
       <c r="H4" t="n">
-        <v>19.18463585132041</v>
+        <v>19.18463585132036</v>
       </c>
       <c r="I4" t="n">
-        <v>19.18463585132041</v>
+        <v>19.18463585132036</v>
       </c>
       <c r="J4" t="n">
-        <v>19.18463585132041</v>
+        <v>19.18463585132036</v>
       </c>
       <c r="K4" t="n">
-        <v>60.34504070228559</v>
+        <v>60.3450407022838</v>
       </c>
       <c r="L4" t="n">
-        <v>245.1780356031039</v>
+        <v>245.178035603102</v>
       </c>
       <c r="M4" t="n">
-        <v>450.4476363223419</v>
+        <v>450.4476363223398</v>
       </c>
       <c r="N4" t="n">
-        <v>656.2710011584461</v>
+        <v>656.2710011584439</v>
       </c>
       <c r="O4" t="n">
-        <v>830.3658965470449</v>
+        <v>830.3658965470427</v>
       </c>
       <c r="P4" t="n">
-        <v>955.8134731456606</v>
+        <v>955.8134731456582</v>
       </c>
       <c r="Q4" t="n">
-        <v>959.2317925660205</v>
+        <v>959.231792566018</v>
       </c>
       <c r="R4" t="n">
-        <v>959.2317925660205</v>
+        <v>828.7538312854207</v>
       </c>
       <c r="S4" t="n">
-        <v>957.2638847329429</v>
+        <v>621.313546537826</v>
       </c>
       <c r="T4" t="n">
-        <v>731.6346880453078</v>
+        <v>621.313546537826</v>
       </c>
       <c r="U4" t="n">
-        <v>489.4044373973228</v>
+        <v>379.0832958898417</v>
       </c>
       <c r="V4" t="n">
-        <v>247.1741867493378</v>
+        <v>379.0832958898417</v>
       </c>
       <c r="W4" t="n">
-        <v>247.1741867493378</v>
+        <v>188.1208187792273</v>
       </c>
       <c r="X4" t="n">
-        <v>19.18463585132041</v>
+        <v>188.1208187792273</v>
       </c>
       <c r="Y4" t="n">
-        <v>19.18463585132041</v>
+        <v>188.1208187792273</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>574.7165680526477</v>
+        <v>449.1521760348602</v>
       </c>
       <c r="C5" t="n">
-        <v>281.4938292502764</v>
+        <v>155.9294372324908</v>
       </c>
       <c r="D5" t="n">
-        <v>43.03965385861456</v>
+        <v>155.9294372324908</v>
       </c>
       <c r="E5" t="n">
-        <v>43.03965385861456</v>
+        <v>155.9294372324908</v>
       </c>
       <c r="F5" t="n">
-        <v>36.09415310941109</v>
+        <v>148.9839364832873</v>
       </c>
       <c r="G5" t="n">
-        <v>23.22324091314781</v>
+        <v>136.113024287024</v>
       </c>
       <c r="H5" t="n">
-        <v>23.22324091314781</v>
+        <v>136.113024287024</v>
       </c>
       <c r="I5" t="n">
-        <v>23.22324091314781</v>
+        <v>23.22324091314766</v>
       </c>
       <c r="J5" t="n">
-        <v>59.1367338295201</v>
+        <v>59.13673382951913</v>
       </c>
       <c r="K5" t="n">
-        <v>163.7002683444963</v>
+        <v>163.7002683444946</v>
       </c>
       <c r="L5" t="n">
-        <v>330.3223409084648</v>
+        <v>330.3223409084623</v>
       </c>
       <c r="M5" t="n">
-        <v>547.3909387162878</v>
+        <v>547.3909387162842</v>
       </c>
       <c r="N5" t="n">
-        <v>772.5857417537065</v>
+        <v>772.5857417537015</v>
       </c>
       <c r="O5" t="n">
-        <v>971.8955472416937</v>
+        <v>971.8955472416876</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.500854171416</v>
+        <v>1107.500854171409</v>
       </c>
       <c r="Q5" t="n">
-        <v>1161.162045657391</v>
+        <v>1161.162045657383</v>
       </c>
       <c r="R5" t="n">
-        <v>1161.162045657391</v>
+        <v>1161.162045657383</v>
       </c>
       <c r="S5" t="n">
-        <v>1161.162045657391</v>
+        <v>1008.968216348563</v>
       </c>
       <c r="T5" t="n">
-        <v>1161.162045657391</v>
+        <v>794.940832460302</v>
       </c>
       <c r="U5" t="n">
-        <v>1161.162045657391</v>
+        <v>742.3749148372297</v>
       </c>
       <c r="V5" t="n">
-        <v>1161.162045657391</v>
+        <v>742.3749148372297</v>
       </c>
       <c r="W5" t="n">
-        <v>1161.162045657391</v>
+        <v>742.3749148372297</v>
       </c>
       <c r="X5" t="n">
-        <v>867.9393068550191</v>
+        <v>742.3749148372297</v>
       </c>
       <c r="Y5" t="n">
-        <v>867.9393068550191</v>
+        <v>449.1521760348602</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>342.1828014350931</v>
+        <v>197.6762701942747</v>
       </c>
       <c r="C6" t="n">
-        <v>167.7297721539661</v>
+        <v>23.22324091314766</v>
       </c>
       <c r="D6" t="n">
-        <v>23.22324091314781</v>
+        <v>23.22324091314766</v>
       </c>
       <c r="E6" t="n">
-        <v>23.22324091314781</v>
+        <v>23.22324091314766</v>
       </c>
       <c r="F6" t="n">
-        <v>23.22324091314781</v>
+        <v>23.22324091314766</v>
       </c>
       <c r="G6" t="n">
-        <v>23.22324091314781</v>
+        <v>23.22324091314766</v>
       </c>
       <c r="H6" t="n">
-        <v>23.22324091314781</v>
+        <v>23.22324091314766</v>
       </c>
       <c r="I6" t="n">
-        <v>23.22324091314781</v>
+        <v>23.22324091314766</v>
       </c>
       <c r="J6" t="n">
-        <v>25.79522430508948</v>
+        <v>25.79522430508901</v>
       </c>
       <c r="K6" t="n">
-        <v>108.3459783063298</v>
+        <v>108.3459783063287</v>
       </c>
       <c r="L6" t="n">
-        <v>265.6681956119417</v>
+        <v>265.66819561194</v>
       </c>
       <c r="M6" t="n">
-        <v>468.6126709702544</v>
+        <v>553.0558019121422</v>
       </c>
       <c r="N6" t="n">
-        <v>691.3371276269156</v>
+        <v>775.7802585688025</v>
       </c>
       <c r="O6" t="n">
-        <v>872.8666975145467</v>
+        <v>1000.252231792098</v>
       </c>
       <c r="P6" t="n">
-        <v>999.2271150356734</v>
+        <v>1126.612649313224</v>
       </c>
       <c r="Q6" t="n">
-        <v>1161.162045657391</v>
+        <v>1161.162045657383</v>
       </c>
       <c r="R6" t="n">
-        <v>1161.162045657391</v>
+        <v>1161.162045657383</v>
       </c>
       <c r="S6" t="n">
-        <v>1161.162045657391</v>
+        <v>1013.449017956129</v>
       </c>
       <c r="T6" t="n">
-        <v>1161.162045657391</v>
+        <v>816.8402904184097</v>
       </c>
       <c r="U6" t="n">
-        <v>1161.162045657391</v>
+        <v>588.707714599361</v>
       </c>
       <c r="V6" t="n">
-        <v>926.0099374256479</v>
+        <v>588.707714599361</v>
       </c>
       <c r="W6" t="n">
-        <v>926.0099374256479</v>
+        <v>588.707714599361</v>
       </c>
       <c r="X6" t="n">
-        <v>718.158437220115</v>
+        <v>380.8562143938282</v>
       </c>
       <c r="Y6" t="n">
-        <v>510.3981384551611</v>
+        <v>365.8916072143427</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>636.6706100500767</v>
+        <v>23.22324091314766</v>
       </c>
       <c r="C7" t="n">
-        <v>636.6706100500767</v>
+        <v>23.22324091314766</v>
       </c>
       <c r="D7" t="n">
-        <v>486.553970637741</v>
+        <v>23.22324091314766</v>
       </c>
       <c r="E7" t="n">
-        <v>338.6408770553479</v>
+        <v>23.22324091314766</v>
       </c>
       <c r="F7" t="n">
-        <v>191.7509295574375</v>
+        <v>23.22324091314766</v>
       </c>
       <c r="G7" t="n">
-        <v>23.22324091314781</v>
+        <v>23.22324091314766</v>
       </c>
       <c r="H7" t="n">
-        <v>23.22324091314781</v>
+        <v>23.22324091314766</v>
       </c>
       <c r="I7" t="n">
-        <v>23.22324091314781</v>
+        <v>23.22324091314766</v>
       </c>
       <c r="J7" t="n">
-        <v>23.22324091314781</v>
+        <v>23.22324091314766</v>
       </c>
       <c r="K7" t="n">
-        <v>133.284689427915</v>
+        <v>133.2846894279145</v>
       </c>
       <c r="L7" t="n">
-        <v>329.6518852993046</v>
+        <v>329.6518852993037</v>
       </c>
       <c r="M7" t="n">
-        <v>547.0826837276999</v>
+        <v>547.0826837276985</v>
       </c>
       <c r="N7" t="n">
-        <v>764.7780801730512</v>
+        <v>764.7780801730494</v>
       </c>
       <c r="O7" t="n">
-        <v>949.8387182967878</v>
+        <v>949.8387182967855</v>
       </c>
       <c r="P7" t="n">
-        <v>1084.66938219591</v>
+        <v>1084.669382195907</v>
       </c>
       <c r="Q7" t="n">
-        <v>1094.584064899866</v>
+        <v>1094.584064899863</v>
       </c>
       <c r="R7" t="n">
-        <v>1094.584064899866</v>
+        <v>1013.139150213287</v>
       </c>
       <c r="S7" t="n">
-        <v>1094.584064899866</v>
+        <v>1013.139150213287</v>
       </c>
       <c r="T7" t="n">
-        <v>1094.584064899866</v>
+        <v>787.8481670652307</v>
       </c>
       <c r="U7" t="n">
-        <v>1094.584064899866</v>
+        <v>498.7003082625646</v>
       </c>
       <c r="V7" t="n">
-        <v>1094.584064899866</v>
+        <v>244.0158200566778</v>
       </c>
       <c r="W7" t="n">
-        <v>857.4631891936068</v>
+        <v>244.0158200566778</v>
       </c>
       <c r="X7" t="n">
-        <v>857.4631891936068</v>
+        <v>244.0158200566778</v>
       </c>
       <c r="Y7" t="n">
-        <v>636.6706100500767</v>
+        <v>23.22324091314766</v>
       </c>
     </row>
     <row r="8">
@@ -4778,52 +4778,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>859.685290191162</v>
+        <v>373.9157775549434</v>
       </c>
       <c r="C8" t="n">
-        <v>859.685290191162</v>
+        <v>373.9157775549434</v>
       </c>
       <c r="D8" t="n">
-        <v>859.685290191162</v>
+        <v>373.9157775549434</v>
       </c>
       <c r="E8" t="n">
-        <v>473.8970375929177</v>
+        <v>373.9157775549434</v>
       </c>
       <c r="F8" t="n">
-        <v>62.91113280331015</v>
+        <v>366.9702768057399</v>
       </c>
       <c r="G8" t="n">
-        <v>51.2467865680031</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362826</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.51718528161</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872947</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923566</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230823</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.228484740848</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721765007</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.250581723849</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R8" t="n">
         <v>2562.339328400155</v>
@@ -4832,22 +4832,22 @@
         <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400155</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U8" t="n">
-        <v>2562.339328400155</v>
+        <v>2100.01262627016</v>
       </c>
       <c r="V8" t="n">
-        <v>2362.658875762289</v>
+        <v>1876.889363126071</v>
       </c>
       <c r="W8" t="n">
-        <v>2009.890220492175</v>
+        <v>1524.120707855957</v>
       </c>
       <c r="X8" t="n">
-        <v>1636.424462231096</v>
+        <v>1150.654949594877</v>
       </c>
       <c r="Y8" t="n">
-        <v>1246.285130255284</v>
+        <v>760.5156176190651</v>
       </c>
     </row>
     <row r="9">
@@ -4875,34 +4875,34 @@
         <v>165.4432786182524</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057894</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500118</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>560.1394111735154</v>
+        <v>423.148951518066</v>
       </c>
       <c r="L9" t="n">
-        <v>854.8429682049882</v>
+        <v>1057.327935297104</v>
       </c>
       <c r="M9" t="n">
-        <v>1218.10498716421</v>
+        <v>1420.589954256325</v>
       </c>
       <c r="N9" t="n">
-        <v>1605.390115761156</v>
+        <v>1807.87508285327</v>
       </c>
       <c r="O9" t="n">
-        <v>1937.460550937319</v>
+        <v>2139.945518029432</v>
       </c>
       <c r="P9" t="n">
-        <v>2447.023413292608</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q9" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>665.1026499885492</v>
+        <v>476.1547555788524</v>
       </c>
       <c r="C10" t="n">
-        <v>496.1664670606423</v>
+        <v>307.2185726509455</v>
       </c>
       <c r="D10" t="n">
-        <v>346.0498276483066</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="E10" t="n">
-        <v>198.1367340659135</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="F10" t="n">
-        <v>51.2467865680031</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="G10" t="n">
-        <v>51.2467865680031</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="H10" t="n">
-        <v>51.2467865680031</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312227</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020483</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693248</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096608</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N10" t="n">
-        <v>1123.088724245826</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999038</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171028</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
-        <v>1636.446120074502</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074502</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074502</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="T10" t="n">
-        <v>1550.217733066223</v>
+        <v>1310.884232784815</v>
       </c>
       <c r="U10" t="n">
-        <v>1550.217733066223</v>
+        <v>1021.765895288653</v>
       </c>
       <c r="V10" t="n">
-        <v>1295.533244860336</v>
+        <v>767.0814070827661</v>
       </c>
       <c r="W10" t="n">
-        <v>1295.533244860336</v>
+        <v>657.8032204090921</v>
       </c>
       <c r="X10" t="n">
-        <v>1067.543693962319</v>
+        <v>657.8032204090921</v>
       </c>
       <c r="Y10" t="n">
-        <v>846.7511148187889</v>
+        <v>657.8032204090921</v>
       </c>
     </row>
     <row r="11">
@@ -5021,31 +5021,31 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
         <v>2206.558663014778</v>
@@ -5054,22 +5054,22 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852253</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
         <v>4151.812499466573</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191922</v>
       </c>
       <c r="L12" t="n">
-        <v>589.1422692637306</v>
+        <v>923.0670414349506</v>
       </c>
       <c r="M12" t="n">
-        <v>1186.520756890282</v>
+        <v>923.0670414349506</v>
       </c>
       <c r="N12" t="n">
-        <v>1814.118720444889</v>
+        <v>1550.665004989557</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>2102.574735228844</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,55 +5173,55 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400703</v>
       </c>
       <c r="C13" t="n">
-        <v>402.7245934908939</v>
+        <v>513.8536007400703</v>
       </c>
       <c r="D13" t="n">
-        <v>402.7245934908939</v>
+        <v>363.7369613277345</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908939</v>
+        <v>215.8238677453414</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908939</v>
+        <v>215.8238677453414</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>215.8238677453414</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N13" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P13" t="n">
         <v>2327.76484885336</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580259</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832661</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S13" t="n">
         <v>2197.062545487566</v>
@@ -5236,13 +5236,13 @@
         <v>1433.701365648818</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611857</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138397</v>
+        <v>916.2946447138402</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703096</v>
+        <v>695.50206557031</v>
       </c>
     </row>
     <row r="14">
@@ -5255,31 +5255,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111719</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332388</v>
@@ -5291,34 +5291,34 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>139.2347658407936</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>139.2347658407936</v>
       </c>
       <c r="L15" t="n">
-        <v>589.1422692637306</v>
+        <v>634.5603720565524</v>
       </c>
       <c r="M15" t="n">
-        <v>949.9304447718133</v>
+        <v>1231.938859683104</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.52840832642</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>695.5020655703109</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C16" t="n">
-        <v>526.5658826424041</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D16" t="n">
-        <v>376.4492432300683</v>
+        <v>261.8464821474266</v>
       </c>
       <c r="E16" t="n">
-        <v>376.4492432300683</v>
+        <v>261.8464821474266</v>
       </c>
       <c r="F16" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="17">
@@ -5492,22 +5492,22 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
@@ -5516,10 +5516,10 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
         <v>2206.55866301478</v>
@@ -5534,28 +5534,28 @@
         <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>417.9651836029407</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>913.2907898186995</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>913.2907898186995</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5729,7 +5729,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5738,52 +5738,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
         <v>3820.749612123003</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,25 +5823,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>139.2347658407936</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>139.2347658407936</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>634.5603720565524</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438176</v>
+        <v>1231.938859683104</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O21" t="n">
         <v>1859.536823237711</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>363.7369613277359</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>363.7369613277359</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5969,13 +5969,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -5984,25 +5984,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6066,28 +6066,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>251.562654109227</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>746.8882603249857</v>
       </c>
       <c r="M24" t="n">
-        <v>691.1951506745238</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N24" t="n">
-        <v>1318.79311422913</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O24" t="n">
-        <v>1870.702844468417</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P24" t="n">
-        <v>2294.325993963485</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>538.7363435406111</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="D25" t="n">
-        <v>388.6197041282753</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E25" t="n">
-        <v>240.7066105458822</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6172,25 +6172,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6200,34 +6200,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6236,7 +6236,7 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6245,31 +6245,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>545.3854261579752</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>397.4723325755821</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>250.5823850776717</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270443</v>
+        <v>250.5823850776717</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6467,13 +6467,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6537,16 +6537,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M30" t="n">
         <v>680.0291294438176</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6652,19 +6652,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6695,22 +6695,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6740,7 +6740,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6777,13 +6777,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M33" t="n">
         <v>680.0291294438176</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6886,22 +6886,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6917,13 +6917,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -7023,19 +7023,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N36" t="n">
-        <v>2297.690135143765</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>929.7309773356195</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>929.7309773356195</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D37" t="n">
-        <v>779.6143379232838</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408906</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7117,28 +7117,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2103.921287069096</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1814.846060413294</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1560.161572207407</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1560.161572207407</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1332.172021309389</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>1111.379442165859</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7154,43 +7154,43 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
         <v>4562.265728852255</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756265</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>184.7035232280589</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589157</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N39" t="n">
-        <v>2297.690135143764</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>642.8692823226941</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908938</v>
+        <v>473.9330993947872</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908938</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908938</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
@@ -7354,28 +7354,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>824.5177471529338</v>
       </c>
     </row>
     <row r="41">
@@ -7385,46 +7385,46 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192591</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7436,25 +7436,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7482,34 +7482,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756265</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>243.4633055756265</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>243.4633055756265</v>
+        <v>1058.183521551621</v>
       </c>
       <c r="M42" t="n">
-        <v>716.6687843969311</v>
+        <v>1655.562009178173</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951538</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190825</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>726.955532171245</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908938</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908938</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908938</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
@@ -7591,28 +7591,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2035.268256189238</v>
+        <v>2190.563011941682</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>1901.48778528588</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1646.803297079993</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1357.386127043032</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>1129.396576145015</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>908.6039970014847</v>
       </c>
     </row>
     <row r="44">
@@ -7622,10 +7622,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
         <v>1590.547811004712</v>
@@ -7634,7 +7634,7 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168602</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7643,31 +7643,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7734,19 +7734,19 @@
         <v>589.1422692637306</v>
       </c>
       <c r="M45" t="n">
-        <v>1186.520756890282</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N45" t="n">
-        <v>1814.118720444889</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7783,22 +7783,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>365.9405071576781</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>219.0505596597677</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>219.0505596597677</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>73.01783107116417</v>
+        <v>6.233205181928483</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8070,7 +8070,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>66.7846258892348</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -8137,7 +8137,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>46.25131710763777</v>
+        <v>46.25131710763609</v>
       </c>
       <c r="L4" t="n">
         <v>162.4747015415544</v>
@@ -8237,7 +8237,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.74236624506773</v>
+        <v>54.74236624506813</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8301,19 +8301,19 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>85.29609186049538</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>43.37616498551995</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>128.6722568460173</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,13 +8529,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>342.9044714621887</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8547,13 +8547,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>265.0304328515065</v>
+        <v>35.91627445172486</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154957</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>57.22910392194358</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>100.7734165143935</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23662,7 +23662,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>87.17534280744522</v>
+        <v>119.3662399606949</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23890,25 +23890,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>43.72409101823369</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24127,25 +24127,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>124.9899273367992</v>
       </c>
       <c r="G22" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24364,10 +24364,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>124.5310997715155</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24382,7 +24382,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,10 +24412,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>10.85445046951719</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24598,28 +24598,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>57.22910392194221</v>
+        <v>66.36248435538656</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24847,13 +24847,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>62.35543909864957</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24892,7 +24892,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25081,19 +25081,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>119.4047645948081</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25126,7 +25126,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25312,25 +25312,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>45.44677382459312</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,13 +25357,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>58.82035778288002</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25372,7 +25372,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25552,22 +25552,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>57.22910392194222</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25615,7 +25615,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>127.7255247667966</v>
       </c>
     </row>
     <row r="41">
@@ -25789,22 +25789,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,13 +25831,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>57.22910392194222</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>210.9709121168619</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26023,25 +26023,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>57.22910392194223</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>97.57899151911153</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>755753.7795564607</v>
+        <v>755753.7795564606</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>757222.7954393408</v>
+        <v>757222.7954393406</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>763020.3271802429</v>
+        <v>763020.3271802431</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>738630.8190212518</v>
+        <v>738630.8190212519</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>738630.8190212518</v>
+        <v>738630.8190212519</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>738630.8190212518</v>
+        <v>738630.8190212519</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>738630.8190212518</v>
+        <v>738630.8190212519</v>
       </c>
     </row>
     <row r="11">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>738630.8190212519</v>
+        <v>738630.8190212518</v>
       </c>
     </row>
     <row r="14">
@@ -26311,34 +26311,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>697885.5043846405</v>
+        <v>697885.5043846408</v>
       </c>
       <c r="C2" t="n">
-        <v>697885.5043846411</v>
+        <v>697885.5043846407</v>
       </c>
       <c r="D2" t="n">
-        <v>697885.5043846411</v>
+        <v>697885.5043846407</v>
       </c>
       <c r="E2" t="n">
-        <v>686074.6097365053</v>
+        <v>686074.6097365055</v>
       </c>
       <c r="F2" t="n">
+        <v>686074.6097365061</v>
+      </c>
+      <c r="G2" t="n">
+        <v>686074.6097365058</v>
+      </c>
+      <c r="H2" t="n">
+        <v>686074.6097365058</v>
+      </c>
+      <c r="I2" t="n">
         <v>686074.6097365055</v>
       </c>
-      <c r="G2" t="n">
+      <c r="J2" t="n">
         <v>686074.6097365057</v>
       </c>
-      <c r="H2" t="n">
-        <v>686074.6097365059</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="K2" t="n">
         <v>686074.6097365058</v>
-      </c>
-      <c r="J2" t="n">
-        <v>686074.6097365058</v>
-      </c>
-      <c r="K2" t="n">
-        <v>686074.6097365059</v>
       </c>
       <c r="L2" t="n">
         <v>686074.6097365058</v>
@@ -26350,7 +26350,7 @@
         <v>686074.6097365057</v>
       </c>
       <c r="O2" t="n">
-        <v>686074.6097365058</v>
+        <v>686074.6097365055</v>
       </c>
       <c r="P2" t="n">
         <v>686074.6097365057</v>
@@ -26363,19 +26363,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>652246.4444800895</v>
+        <v>652246.4444800888</v>
       </c>
       <c r="C3" t="n">
-        <v>55881.32342211052</v>
+        <v>55881.32342210907</v>
       </c>
       <c r="D3" t="n">
-        <v>363279.8866276248</v>
+        <v>363279.8866276247</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245439</v>
+        <v>507485.4416245454</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>6.590010104508989e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,25 +26387,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62744.31078353601</v>
+        <v>62744.31078353583</v>
       </c>
       <c r="K3" t="n">
-        <v>12992.59634440494</v>
+        <v>12992.59634440459</v>
       </c>
       <c r="L3" t="n">
-        <v>88656.33991666225</v>
+        <v>88656.33991666275</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289267</v>
+        <v>132607.2937289266</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1.670698566158535e-10</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.513344614068046e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>261062.8075060263</v>
+        <v>261062.8075060265</v>
       </c>
       <c r="C4" t="n">
-        <v>246054.6603431035</v>
+        <v>246054.660343104</v>
       </c>
       <c r="D4" t="n">
-        <v>143951.0939828186</v>
+        <v>143951.0939828189</v>
       </c>
       <c r="E4" t="n">
-        <v>12996.86414683044</v>
+        <v>12996.86414683052</v>
       </c>
       <c r="F4" t="n">
-        <v>12996.86414683044</v>
+        <v>12996.8641468304</v>
       </c>
       <c r="G4" t="n">
+        <v>12996.86414683042</v>
+      </c>
+      <c r="H4" t="n">
+        <v>12996.86414683042</v>
+      </c>
+      <c r="I4" t="n">
         <v>12996.86414683046</v>
       </c>
-      <c r="H4" t="n">
-        <v>12996.86414683045</v>
-      </c>
-      <c r="I4" t="n">
-        <v>12996.86414683044</v>
-      </c>
       <c r="J4" t="n">
-        <v>12996.86414683044</v>
+        <v>12996.8641468305</v>
       </c>
       <c r="K4" t="n">
         <v>12996.86414683044</v>
       </c>
       <c r="L4" t="n">
-        <v>12996.86414683044</v>
+        <v>12996.86414683042</v>
       </c>
       <c r="M4" t="n">
-        <v>12996.86414683044</v>
+        <v>12996.86414683046</v>
       </c>
       <c r="N4" t="n">
-        <v>12996.86414683048</v>
+        <v>12996.86414683046</v>
       </c>
       <c r="O4" t="n">
-        <v>12996.8641468305</v>
+        <v>12996.86414683042</v>
       </c>
       <c r="P4" t="n">
-        <v>12996.8641468304</v>
+        <v>12996.86414683046</v>
       </c>
     </row>
     <row r="5">
@@ -26467,13 +26467,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>61145.70223437333</v>
+        <v>61145.70223437328</v>
       </c>
       <c r="C5" t="n">
-        <v>65162.40123302712</v>
+        <v>65162.40123302698</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.77243984476</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-276569.4498358486</v>
+        <v>-276569.4498358477</v>
       </c>
       <c r="C6" t="n">
-        <v>330787.1193864</v>
+        <v>330787.1193864006</v>
       </c>
       <c r="D6" t="n">
-        <v>97716.75133435291</v>
+        <v>97716.75133435242</v>
       </c>
       <c r="E6" t="n">
-        <v>64469.77414122391</v>
+        <v>64435.03621578689</v>
       </c>
       <c r="F6" t="n">
-        <v>571955.2157657681</v>
+        <v>571920.4778403323</v>
       </c>
       <c r="G6" t="n">
-        <v>571955.2157657681</v>
+        <v>571920.4778403325</v>
       </c>
       <c r="H6" t="n">
-        <v>571955.2157657684</v>
+        <v>571920.4778403325</v>
       </c>
       <c r="I6" t="n">
-        <v>571955.2157657683</v>
+        <v>571920.4778403324</v>
       </c>
       <c r="J6" t="n">
-        <v>509210.9049822322</v>
+        <v>509176.1670567965</v>
       </c>
       <c r="K6" t="n">
-        <v>558962.6194213635</v>
+        <v>558927.881495928</v>
       </c>
       <c r="L6" t="n">
-        <v>483298.8758491061</v>
+        <v>483264.1379236698</v>
       </c>
       <c r="M6" t="n">
-        <v>439347.9220368413</v>
+        <v>439313.1841114056</v>
       </c>
       <c r="N6" t="n">
-        <v>571955.2157657682</v>
+        <v>571920.4778403323</v>
       </c>
       <c r="O6" t="n">
-        <v>571955.2157657682</v>
+        <v>571920.4778403324</v>
       </c>
       <c r="P6" t="n">
-        <v>571955.2157657681</v>
+        <v>571920.4778403323</v>
       </c>
     </row>
   </sheetData>
@@ -26692,7 +26692,7 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26725,7 +26725,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>8.233995860619275e-14</v>
       </c>
     </row>
     <row r="3">
@@ -26735,16 +26735,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>593.476100338065</v>
+        <v>593.4761003380645</v>
       </c>
       <c r="C3" t="n">
-        <v>636.932942157559</v>
+        <v>636.9329421575574</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175416</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="E3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341673</v>
       </c>
       <c r="F3" t="n">
         <v>1367.975500341674</v>
@@ -26787,25 +26787,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>239.8079481415051</v>
+        <v>239.8079481415045</v>
       </c>
       <c r="C4" t="n">
-        <v>290.2905114143476</v>
+        <v>290.2905114143458</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26914,10 +26914,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>-9.45294417455255e-14</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26926,13 +26926,13 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>-2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>9.45294417455255e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>-9.45294417455255e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26957,19 +26957,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>593.476100338065</v>
+        <v>593.4761003380645</v>
       </c>
       <c r="C3" t="n">
-        <v>43.456841819494</v>
+        <v>43.45684181949287</v>
       </c>
       <c r="D3" t="n">
-        <v>297.1319499599826</v>
+        <v>297.1319499599819</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241321</v>
+        <v>433.9106082241341</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26978,7 +26978,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26993,13 +26993,13 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>-2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27009,19 +27009,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>239.8079481415051</v>
+        <v>239.8079481415045</v>
       </c>
       <c r="C4" t="n">
-        <v>50.48256327284254</v>
+        <v>50.48256327284125</v>
       </c>
       <c r="D4" t="n">
-        <v>350.2943206856911</v>
+        <v>350.2943206856931</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996091</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,19 +27033,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>239.8079481415052</v>
+        <v>239.8079481415043</v>
       </c>
       <c r="K4" t="n">
-        <v>50.48256327284254</v>
+        <v>50.48256327284147</v>
       </c>
       <c r="L4" t="n">
-        <v>350.2943206856911</v>
+        <v>350.2943206856931</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996091</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>9.45294417455255e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,19 +27255,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>239.8079481415051</v>
+        <v>239.8079481415045</v>
       </c>
       <c r="K4" t="n">
-        <v>50.48256327284254</v>
+        <v>50.48256327284125</v>
       </c>
       <c r="L4" t="n">
-        <v>350.2943206856911</v>
+        <v>350.2943206856931</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996091</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27379,13 +27379,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>292.3390416295085</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>114.8750934791778</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>142.1224219307566</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27394,7 +27394,7 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>75.23293593371044</v>
+        <v>129.7958878938144</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,16 +27427,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.1547862223006</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>87.94431032863039</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27455,28 +27455,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>136.0669836643703</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>99.90681807664346</v>
       </c>
       <c r="I3" t="n">
-        <v>4.106982420283593</v>
+        <v>45.44580843958671</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,28 +27503,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.90078060183511</v>
+        <v>20.90078060183517</v>
       </c>
       <c r="S3" t="n">
-        <v>147.9721212459916</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>195.0194028815133</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8573996139459</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>11.88703501941509</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>83.69288251270898</v>
       </c>
     </row>
     <row r="4">
@@ -27537,7 +27537,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27558,7 +27558,7 @@
         <v>123.266557879417</v>
       </c>
       <c r="J4" t="n">
-        <v>17.695841881769</v>
+        <v>17.69584188176906</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,25 +27582,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>129.1731816677913</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>203.4176531453717</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U4" t="n">
-        <v>46.45270651659185</v>
+        <v>46.45270651659249</v>
       </c>
       <c r="V4" t="n">
-        <v>12.32969518232287</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>97.47014599708277</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,13 +27613,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92.44333024913294</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>74.98238035665992</v>
+        <v>74.98238035666179</v>
       </c>
       <c r="D5" t="n">
-        <v>118.6134079829377</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27631,10 +27631,10 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>313.2517287735718</v>
+        <v>313.2517287735719</v>
       </c>
       <c r="I5" t="n">
-        <v>111.7608855401374</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,13 +27664,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>150.6718910157313</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>211.8871100493787</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1408101525697</v>
+        <v>199.1005517057282</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27679,10 +27679,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>79.4405892641214</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>95.94742724170783</v>
       </c>
     </row>
     <row r="6">
@@ -27698,7 +27698,7 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>4.383599636228666</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -27710,10 +27710,10 @@
         <v>135.9735104574378</v>
       </c>
       <c r="H6" t="n">
-        <v>99.00406368337434</v>
+        <v>99.00406368337437</v>
       </c>
       <c r="I6" t="n">
-        <v>42.22754232370905</v>
+        <v>42.22754232370917</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,19 +27740,19 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>15.09724236790343</v>
+        <v>15.09724236790365</v>
       </c>
       <c r="S6" t="n">
-        <v>146.235897424241</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>194.6426402623424</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8512500608582</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
@@ -27761,7 +27761,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>190.8677346696137</v>
       </c>
     </row>
     <row r="7">
@@ -27777,25 +27777,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.8424117578468</v>
       </c>
       <c r="H7" t="n">
         <v>152.0153623856348</v>
       </c>
       <c r="I7" t="n">
-        <v>120.9099147197631</v>
+        <v>120.9099147197632</v>
       </c>
       <c r="J7" t="n">
-        <v>12.15545075340499</v>
+        <v>12.15545075340519</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,22 +27819,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>125.6496154441976</v>
+        <v>45.01914990448761</v>
       </c>
       <c r="S7" t="n">
-        <v>204.0001972153978</v>
+        <v>204.0001972153979</v>
       </c>
       <c r="T7" t="n">
-        <v>223.0380733165757</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2563802146393</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>51.77333138739465</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27859,19 +27859,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624053</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247013</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,16 +27901,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987942</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802337</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>130.068610358648</v>
+        <v>106.8602279574869</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28017,10 +28017,10 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.3066000448042</v>
@@ -28029,7 +28029,7 @@
         <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039004</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,28 +28056,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195734</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617374</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>135.3825928590164</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>178.3375935296538</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28087,25 +28087,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="H11" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>1.092834328777952e-12</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
     </row>
     <row r="12">
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28855,7 +28855,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -29050,7 +29050,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -29290,7 +29290,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30271,7 +30271,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>9.237055564881302e-13</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -30475,7 +30475,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -30709,7 +30709,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.385833569198249</v>
+        <v>2.385833569198248</v>
       </c>
       <c r="H2" t="n">
-        <v>24.43391804055157</v>
+        <v>24.43391804055156</v>
       </c>
       <c r="I2" t="n">
-        <v>91.97984867651559</v>
+        <v>91.97984867651553</v>
       </c>
       <c r="J2" t="n">
-        <v>202.4946418937401</v>
+        <v>202.4946418937399</v>
       </c>
       <c r="K2" t="n">
-        <v>303.4869768779021</v>
+        <v>303.4869768779018</v>
       </c>
       <c r="L2" t="n">
-        <v>376.502430971253</v>
+        <v>376.5024309712527</v>
       </c>
       <c r="M2" t="n">
-        <v>418.9314987074824</v>
+        <v>418.9314987074821</v>
       </c>
       <c r="N2" t="n">
-        <v>425.710248335967</v>
+        <v>425.7102483359666</v>
       </c>
       <c r="O2" t="n">
-        <v>401.9861157822518</v>
+        <v>401.9861157822515</v>
       </c>
       <c r="P2" t="n">
-        <v>343.08584954267</v>
+        <v>343.0858495426697</v>
       </c>
       <c r="Q2" t="n">
-        <v>257.6431848457576</v>
+        <v>257.6431848457574</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>149.8691179411495</v>
       </c>
       <c r="S2" t="n">
-        <v>54.36718245810516</v>
+        <v>54.36718245810512</v>
       </c>
       <c r="T2" t="n">
-        <v>10.44398644916534</v>
+        <v>10.44398644916533</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1908666855358599</v>
+        <v>0.1908666855358598</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.276533498840366</v>
+        <v>1.276533498840365</v>
       </c>
       <c r="H3" t="n">
-        <v>12.32862615985301</v>
+        <v>12.328626159853</v>
       </c>
       <c r="I3" t="n">
-        <v>43.9508244118284</v>
+        <v>43.95082441182837</v>
       </c>
       <c r="J3" t="n">
-        <v>120.6044214847383</v>
+        <v>120.6044214847382</v>
       </c>
       <c r="K3" t="n">
-        <v>206.1321659070428</v>
+        <v>206.1321659070427</v>
       </c>
       <c r="L3" t="n">
-        <v>277.1701353512822</v>
+        <v>277.1701353512819</v>
       </c>
       <c r="M3" t="n">
-        <v>323.4444746842453</v>
+        <v>323.4444746842451</v>
       </c>
       <c r="N3" t="n">
-        <v>332.0050874900653</v>
+        <v>332.005087490065</v>
       </c>
       <c r="O3" t="n">
-        <v>303.7197925947077</v>
+        <v>303.7197925947074</v>
       </c>
       <c r="P3" t="n">
-        <v>243.7619099671573</v>
+        <v>243.7619099671571</v>
       </c>
       <c r="Q3" t="n">
-        <v>162.9483813607457</v>
+        <v>162.9483813607456</v>
       </c>
       <c r="R3" t="n">
-        <v>79.25705355080802</v>
+        <v>79.25705355080797</v>
       </c>
       <c r="S3" t="n">
-        <v>23.71104985784626</v>
+        <v>23.71104985784624</v>
       </c>
       <c r="T3" t="n">
-        <v>5.145325813308316</v>
+        <v>5.145325813308312</v>
       </c>
       <c r="U3" t="n">
-        <v>0.0839824670289715</v>
+        <v>0.08398246702897143</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.070202803888314</v>
+        <v>1.070202803888313</v>
       </c>
       <c r="H4" t="n">
-        <v>9.515075838207014</v>
+        <v>9.515075838207007</v>
       </c>
       <c r="I4" t="n">
-        <v>32.1839170478413</v>
+        <v>32.18391704784128</v>
       </c>
       <c r="J4" t="n">
-        <v>75.66333823490378</v>
+        <v>75.66333823490372</v>
       </c>
       <c r="K4" t="n">
-        <v>124.3381075790241</v>
+        <v>124.338107579024</v>
       </c>
       <c r="L4" t="n">
-        <v>159.1099695889953</v>
+        <v>159.1099695889952</v>
       </c>
       <c r="M4" t="n">
-        <v>167.7591540676927</v>
+        <v>167.7591540676925</v>
       </c>
       <c r="N4" t="n">
-        <v>163.7702163441091</v>
+        <v>163.7702163441089</v>
       </c>
       <c r="O4" t="n">
-        <v>151.2683017714137</v>
+        <v>151.2683017714136</v>
       </c>
       <c r="P4" t="n">
-        <v>129.436164572092</v>
+        <v>129.4361645720919</v>
       </c>
       <c r="Q4" t="n">
-        <v>89.6148911510478</v>
+        <v>89.61489115104774</v>
       </c>
       <c r="R4" t="n">
-        <v>48.12020970937817</v>
+        <v>48.12020970937813</v>
       </c>
       <c r="S4" t="n">
-        <v>18.65071613685361</v>
+        <v>18.65071613685359</v>
       </c>
       <c r="T4" t="n">
-        <v>4.572684707522794</v>
+        <v>4.57268470752279</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05837469839390809</v>
+        <v>0.05837469839390805</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.560534440834406</v>
+        <v>2.560534440834399</v>
       </c>
       <c r="H5" t="n">
-        <v>26.22307334219537</v>
+        <v>26.2230733421953</v>
       </c>
       <c r="I5" t="n">
-        <v>98.71500403026853</v>
+        <v>98.71500403026829</v>
       </c>
       <c r="J5" t="n">
-        <v>217.3221599977693</v>
+        <v>217.3221599977688</v>
       </c>
       <c r="K5" t="n">
-        <v>325.7095828782898</v>
+        <v>325.709582878289</v>
       </c>
       <c r="L5" t="n">
-        <v>404.0715387719758</v>
+        <v>404.0715387719749</v>
       </c>
       <c r="M5" t="n">
-        <v>449.6074431341647</v>
+        <v>449.6074431341636</v>
       </c>
       <c r="N5" t="n">
-        <v>456.8825616141855</v>
+        <v>456.8825616141843</v>
       </c>
       <c r="O5" t="n">
-        <v>431.4212472681384</v>
+        <v>431.4212472681373</v>
       </c>
       <c r="P5" t="n">
-        <v>368.2080532600389</v>
+        <v>368.208053260038</v>
       </c>
       <c r="Q5" t="n">
-        <v>276.5089135976567</v>
+        <v>276.508913597656</v>
       </c>
       <c r="R5" t="n">
-        <v>160.8431715690644</v>
+        <v>160.843171569064</v>
       </c>
       <c r="S5" t="n">
-        <v>58.34817857051409</v>
+        <v>58.34817857051394</v>
       </c>
       <c r="T5" t="n">
-        <v>11.20873951475262</v>
+        <v>11.20873951475259</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2048427552667524</v>
+        <v>0.2048427552667519</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.370006705772863</v>
+        <v>1.370006705772859</v>
       </c>
       <c r="H6" t="n">
-        <v>13.23138055312212</v>
+        <v>13.23138055312209</v>
       </c>
       <c r="I6" t="n">
-        <v>47.16909052770603</v>
+        <v>47.1690905277059</v>
       </c>
       <c r="J6" t="n">
-        <v>129.43558968883</v>
+        <v>129.4355896888297</v>
       </c>
       <c r="K6" t="n">
-        <v>221.2260389756118</v>
+        <v>221.2260389756112</v>
       </c>
       <c r="L6" t="n">
-        <v>297.4657103916034</v>
+        <v>297.4657103916027</v>
       </c>
       <c r="M6" t="n">
-        <v>347.1284534758696</v>
+        <v>347.1284534758687</v>
       </c>
       <c r="N6" t="n">
-        <v>356.3159107264254</v>
+        <v>356.3159107264245</v>
       </c>
       <c r="O6" t="n">
-        <v>325.9594463511424</v>
+        <v>325.9594463511417</v>
       </c>
       <c r="P6" t="n">
-        <v>261.6111927892057</v>
+        <v>261.6111927892051</v>
       </c>
       <c r="Q6" t="n">
-        <v>174.8801542316377</v>
+        <v>174.8801542316373</v>
       </c>
       <c r="R6" t="n">
-        <v>85.0605917847397</v>
+        <v>85.06059178473949</v>
       </c>
       <c r="S6" t="n">
-        <v>25.4472736795968</v>
+        <v>25.44727367959673</v>
       </c>
       <c r="T6" t="n">
-        <v>5.522088432479212</v>
+        <v>5.522088432479198</v>
       </c>
       <c r="U6" t="n">
-        <v>0.09013202011663574</v>
+        <v>0.09013202011663551</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.148567600611991</v>
+        <v>1.148567600611988</v>
       </c>
       <c r="H7" t="n">
-        <v>10.2118101218048</v>
+        <v>10.21181012180478</v>
       </c>
       <c r="I7" t="n">
-        <v>34.54056020749517</v>
+        <v>34.54056020749508</v>
       </c>
       <c r="J7" t="n">
-        <v>81.20372936326778</v>
+        <v>81.20372936326758</v>
       </c>
       <c r="K7" t="n">
-        <v>133.4426721438295</v>
+        <v>133.4426721438292</v>
       </c>
       <c r="L7" t="n">
-        <v>170.7606776400774</v>
+        <v>170.7606776400769</v>
       </c>
       <c r="M7" t="n">
-        <v>180.0431921577506</v>
+        <v>180.0431921577502</v>
       </c>
       <c r="N7" t="n">
-        <v>175.7621674645606</v>
+        <v>175.7621674645602</v>
       </c>
       <c r="O7" t="n">
-        <v>162.3448095846841</v>
+        <v>162.3448095846837</v>
       </c>
       <c r="P7" t="n">
-        <v>138.9140305321993</v>
+        <v>138.914030532199</v>
       </c>
       <c r="Q7" t="n">
-        <v>96.1768742657914</v>
+        <v>96.17687426579116</v>
       </c>
       <c r="R7" t="n">
-        <v>51.64377593297189</v>
+        <v>51.64377593297176</v>
       </c>
       <c r="S7" t="n">
-        <v>20.01640082157443</v>
+        <v>20.01640082157438</v>
       </c>
       <c r="T7" t="n">
-        <v>4.90751611170578</v>
+        <v>4.907516111705768</v>
       </c>
       <c r="U7" t="n">
-        <v>0.06264914185156324</v>
+        <v>0.06264914185156309</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181069</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336188</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7659768979358</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491908</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857155</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767395</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730021</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342241</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166611</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190659</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147062</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235318</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745119</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43766458389764</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744855</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.009120711347165</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.40387634380026</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436511</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J9" t="n">
-        <v>189.8178475575846</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>324.4289352178446</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177255</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040601</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762085</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405686</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378635</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.4624964168767</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
-        <v>124.7417227624144</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997911</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000194</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675767</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.684379313654583</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H10" t="n">
-        <v>14.97566335231076</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335784</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J10" t="n">
-        <v>119.085617475379</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6942511682324</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L10" t="n">
-        <v>250.4212663227914</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849634</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067965</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154679</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
-        <v>203.7180217169142</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q10" t="n">
-        <v>141.0437987097488</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759605</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523486</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.19689343106958</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529025009</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135338</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817573</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162558</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175671</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159422</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460025</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236505</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.873223366922</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043724</v>
       </c>
       <c r="S11" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078744</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,10 +31829,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659448</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521099</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31841,34 +31841,34 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422584</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.883274947307</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071782</v>
       </c>
       <c r="O12" t="n">
-        <v>461.1007071927452</v>
+        <v>700.0808204437241</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>552.0015769888942</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31914,28 +31914,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869272</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106787</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417313</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31944,7 +31944,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>170.9292585737925</v>
       </c>
       <c r="K15" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>506.5665344352332</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>312.3207226334973</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>172.7144981745674</v>
       </c>
       <c r="K21" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32786,19 +32786,19 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>146.0225991093089</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
@@ -32810,7 +32810,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33026,28 +33026,28 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>746.4857620875799</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33257,19 +33257,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>391.605194951448</v>
       </c>
       <c r="M30" t="n">
-        <v>734.2678383622665</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
@@ -33497,16 +33497,16 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>579.5299594447137</v>
       </c>
       <c r="M33" t="n">
-        <v>734.2678383622665</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
@@ -33743,22 +33743,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>302.967544750805</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>400.5469039565762</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33883,37 +33883,37 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
         <v>345.4516222043725</v>
@@ -33922,10 +33922,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33971,37 +33971,37 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420754</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>229.6463482471742</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862119</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>400.5469039565771</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
         <v>0.1935814387275954</v>
@@ -34047,28 +34047,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P40" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
         <v>206.5643005515927</v>
@@ -34077,7 +34077,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
@@ -34120,37 +34120,37 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236515</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
         <v>345.4516222043725</v>
@@ -34159,10 +34159,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34208,37 +34208,37 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>624.2063432190395</v>
       </c>
       <c r="M42" t="n">
-        <v>620.1193660647502</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437242</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
         <v>0.1935814387275954</v>
@@ -34284,28 +34284,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P43" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
         <v>206.5643005515927</v>
@@ -34314,7 +34314,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
@@ -34454,22 +34454,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>233.9389431948335</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>461.1007071927452</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>21.44873736705381</v>
+        <v>21.44873736705364</v>
       </c>
       <c r="K2" t="n">
-        <v>83.39712583292152</v>
+        <v>83.39712583292123</v>
       </c>
       <c r="L2" t="n">
-        <v>140.7360160012658</v>
+        <v>140.7360160012655</v>
       </c>
       <c r="M2" t="n">
-        <v>188.5852654802096</v>
+        <v>188.5852654802094</v>
       </c>
       <c r="N2" t="n">
-        <v>196.2971847393761</v>
+        <v>196.2971847393757</v>
       </c>
       <c r="O2" t="n">
-        <v>171.8879043605651</v>
+        <v>171.8879043605648</v>
       </c>
       <c r="P2" t="n">
-        <v>111.8528537874005</v>
+        <v>111.8528537874002</v>
       </c>
       <c r="Q2" t="n">
-        <v>35.33749497130813</v>
+        <v>35.33749497130796</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>-1.4210854715202e-13</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>66.78462588923577</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>68.29072693268384</v>
+        <v>68.29072693268367</v>
       </c>
       <c r="L3" t="n">
-        <v>138.615755571408</v>
+        <v>138.6157555714078</v>
       </c>
       <c r="M3" t="n">
-        <v>181.310440762227</v>
+        <v>181.3104407622268</v>
       </c>
       <c r="N3" t="n">
-        <v>200.6633754067319</v>
+        <v>200.6633754067317</v>
       </c>
       <c r="O3" t="n">
-        <v>161.1235481502632</v>
+        <v>227.9081740394978</v>
       </c>
       <c r="P3" t="n">
-        <v>109.7875025528271</v>
+        <v>109.7875025528269</v>
       </c>
       <c r="Q3" t="n">
-        <v>22.9666072747242</v>
+        <v>22.96660727472405</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,25 +34857,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>41.57616651612644</v>
+        <v>41.57616651612468</v>
       </c>
       <c r="L4" t="n">
-        <v>186.6999948493115</v>
+        <v>186.6999948493113</v>
       </c>
       <c r="M4" t="n">
-        <v>207.3430310295333</v>
+        <v>207.3430310295331</v>
       </c>
       <c r="N4" t="n">
-        <v>207.9023887233377</v>
+        <v>207.9023887233375</v>
       </c>
       <c r="O4" t="n">
-        <v>175.8534296854534</v>
+        <v>175.8534296854533</v>
       </c>
       <c r="P4" t="n">
-        <v>126.7147238369855</v>
+        <v>126.7147238369854</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.452847899353415</v>
+        <v>3.452847899353358</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>36.27625547108306</v>
+        <v>36.27625547108252</v>
       </c>
       <c r="K5" t="n">
-        <v>105.6197318333093</v>
+        <v>105.6197318333084</v>
       </c>
       <c r="L5" t="n">
-        <v>168.3051238019886</v>
+        <v>168.3051238019876</v>
       </c>
       <c r="M5" t="n">
-        <v>219.261209906892</v>
+        <v>219.2612099068909</v>
       </c>
       <c r="N5" t="n">
-        <v>227.4694980175946</v>
+        <v>227.4694980175934</v>
       </c>
       <c r="O5" t="n">
-        <v>201.3230358464516</v>
+        <v>201.3230358464506</v>
       </c>
       <c r="P5" t="n">
-        <v>136.9750575047693</v>
+        <v>136.9750575047684</v>
       </c>
       <c r="Q5" t="n">
-        <v>54.20322372320717</v>
+        <v>54.20322372320649</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>2.597963022163299</v>
+        <v>2.597963022162986</v>
       </c>
       <c r="K6" t="n">
-        <v>83.38460000125281</v>
+        <v>83.38460000125224</v>
       </c>
       <c r="L6" t="n">
-        <v>158.9113306117292</v>
+        <v>158.9113306117285</v>
       </c>
       <c r="M6" t="n">
-        <v>204.9944195538513</v>
+        <v>290.2905114143458</v>
       </c>
       <c r="N6" t="n">
-        <v>224.9741986430921</v>
+        <v>224.9741986430912</v>
       </c>
       <c r="O6" t="n">
-        <v>183.363201906698</v>
+        <v>226.7393668922172</v>
       </c>
       <c r="P6" t="n">
-        <v>127.6367853748754</v>
+        <v>127.6367853748748</v>
       </c>
       <c r="Q6" t="n">
-        <v>163.5706369916335</v>
+        <v>34.89838014561576</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,25 +35094,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>111.1731803179467</v>
+        <v>111.1731803179463</v>
       </c>
       <c r="L7" t="n">
-        <v>198.3507029003935</v>
+        <v>198.3507029003931</v>
       </c>
       <c r="M7" t="n">
-        <v>219.6270691195912</v>
+        <v>219.6270691195907</v>
       </c>
       <c r="N7" t="n">
-        <v>219.8943398437892</v>
+        <v>219.8943398437887</v>
       </c>
       <c r="O7" t="n">
-        <v>186.9299374987238</v>
+        <v>186.9299374987233</v>
       </c>
       <c r="P7" t="n">
-        <v>136.1925897970928</v>
+        <v>136.1925897970925</v>
       </c>
       <c r="Q7" t="n">
-        <v>10.01483101409701</v>
+        <v>10.01483101409677</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225045</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.564649540735</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067523</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457294</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376332</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949743</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637963</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402567</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939967</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,31 +35249,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091791</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K9" t="n">
-        <v>451.0527332560642</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378513</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820418</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928752</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>335.4246819961242</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>514.7099619750397</v>
+        <v>285.5958035752572</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308552</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>24.58388860977092</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870624</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K10" t="n">
-        <v>173.4247593423496</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831075</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468039</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860251</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295076</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9965809818077</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.8817554580544</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317199</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396418</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367768</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462685</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902944</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193513</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243157</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683809</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924725</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902403</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,28 +35489,28 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678994</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674328</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238449</v>
       </c>
       <c r="O12" t="n">
-        <v>318.5044627483008</v>
+        <v>557.4845759992796</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>418.0271695745639</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789205</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.0464832629533</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096348</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191313</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010449</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066232</v>
+        <v>295.6317733066248</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>44.09163190712581</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>364.4325005132149</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>174.4792836591383</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>257.9506595121318</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>45.87687150790074</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36434,19 +36434,19 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>8.181160134949948</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
@@ -36458,7 +36458,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36674,28 +36674,28 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>615.1440500042467</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36905,19 +36905,19 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>253.0508151715738</v>
       </c>
       <c r="M30" t="n">
-        <v>592.1338044402481</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
@@ -37145,16 +37145,16 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>440.9755796648395</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402481</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
@@ -37391,22 +37391,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>160.8335108287866</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>257.9506595121318</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37537,31 +37537,31 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902404</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754087</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678995</v>
+        <v>91.80490927281522</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641936</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>257.9506595121327</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
         <v>264.3325884096349</v>
@@ -37707,19 +37707,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q40" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,31 +37774,31 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.587454168382</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902404</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>485.6519634391653</v>
       </c>
       <c r="M42" t="n">
-        <v>477.9853321427319</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992797</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
         <v>264.3325884096349</v>
@@ -37944,19 +37944,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q43" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38102,22 +38102,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>91.80490927281522</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>318.5044627483008</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
